--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -532,7 +532,7 @@
         <v>52.27</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>97.73</v>
       </c>
       <c r="H2" t="n">
         <v>90.91</v>
@@ -544,7 +544,7 @@
         <v>45.45</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>11.36</v>
       </c>
       <c r="L2" t="n">
         <v>2.27</v>
@@ -553,7 +553,7 @@
         <v>56.82</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>9.09</v>
       </c>
       <c r="O2" t="n">
         <v>65.91</v>
@@ -584,7 +584,7 @@
         <v>55.84</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="H3" t="n">
         <v>93.51000000000001</v>
@@ -596,7 +596,7 @@
         <v>53.25</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>1.3</v>
       </c>
       <c r="L3" t="n">
         <v>2.6</v>
@@ -605,7 +605,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
         <v>77.92</v>
@@ -636,7 +636,7 @@
         <v>51.85</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="H4" t="n">
         <v>68.52</v>
@@ -648,7 +648,7 @@
         <v>44.44</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>7.41</v>
       </c>
       <c r="L4" t="n">
         <v>7.41</v>
@@ -657,7 +657,7 @@
         <v>46.3</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>11.11</v>
       </c>
       <c r="O4" t="n">
         <v>64.81</v>
@@ -700,7 +700,7 @@
         <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>11.54</v>
       </c>
       <c r="L5" t="n">
         <v>11.54</v>
@@ -709,7 +709,7 @@
         <v>57.69</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>11.54</v>
       </c>
       <c r="O5" t="n">
         <v>73.08</v>
@@ -752,7 +752,7 @@
         <v>25.41</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>9.94</v>
       </c>
       <c r="L6" t="n">
         <v>6.08</v>
@@ -761,7 +761,7 @@
         <v>24.31</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>7.18</v>
       </c>
       <c r="O6" t="n">
         <v>69.06</v>
@@ -804,7 +804,7 @@
         <v>38.26</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>13.04</v>
       </c>
       <c r="L7" t="n">
         <v>8.699999999999999</v>
@@ -813,7 +813,7 @@
         <v>47.83</v>
       </c>
       <c r="N7" t="n">
-        <v>100</v>
+        <v>9.57</v>
       </c>
       <c r="O7" t="n">
         <v>69.56999999999999</v>
@@ -844,7 +844,7 @@
         <v>64.15000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>98.88</v>
       </c>
       <c r="H8" t="n">
         <v>88.94</v>
@@ -856,7 +856,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>21.01</v>
       </c>
       <c r="L8" t="n">
         <v>23.25</v>
@@ -865,7 +865,7 @@
         <v>82.34999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>100</v>
+        <v>16.25</v>
       </c>
       <c r="O8" t="n">
         <v>75.06999999999999</v>
@@ -908,7 +908,7 @@
         <v>30.92</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>13.16</v>
       </c>
       <c r="L9" t="n">
         <v>10.53</v>
@@ -917,7 +917,7 @@
         <v>46.05</v>
       </c>
       <c r="N9" t="n">
-        <v>100</v>
+        <v>10.53</v>
       </c>
       <c r="O9" t="n">
         <v>68.42</v>
@@ -948,7 +948,7 @@
         <v>32.41</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>84.26000000000001</v>
@@ -960,7 +960,7 @@
         <v>31.02</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="L10" t="n">
         <v>6.02</v>
@@ -969,7 +969,7 @@
         <v>33.8</v>
       </c>
       <c r="N10" t="n">
-        <v>100</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O10" t="n">
         <v>63.89</v>
@@ -1012,7 +1012,7 @@
         <v>27.27</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>4.55</v>
       </c>
       <c r="L11" t="n">
         <v>2.27</v>
@@ -1021,7 +1021,7 @@
         <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>100</v>
+        <v>4.55</v>
       </c>
       <c r="O11" t="n">
         <v>54.55</v>
@@ -1052,7 +1052,7 @@
         <v>38.41</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>99.34</v>
       </c>
       <c r="H12" t="n">
         <v>75.17</v>
@@ -1064,7 +1064,7 @@
         <v>34.44</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>8.94</v>
       </c>
       <c r="L12" t="n">
         <v>4.97</v>
@@ -1073,7 +1073,7 @@
         <v>44.04</v>
       </c>
       <c r="N12" t="n">
-        <v>100</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>64.90000000000001</v>
@@ -1116,7 +1116,7 @@
         <v>41.51</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>7.55</v>
       </c>
       <c r="L13" t="n">
         <v>4.72</v>
@@ -1125,7 +1125,7 @@
         <v>38.68</v>
       </c>
       <c r="N13" t="n">
-        <v>100</v>
+        <v>5.66</v>
       </c>
       <c r="O13" t="n">
         <v>71.7</v>
@@ -1168,7 +1168,7 @@
         <v>34.09</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>11.36</v>
       </c>
       <c r="L14" t="n">
         <v>11.36</v>
@@ -1177,7 +1177,7 @@
         <v>47.73</v>
       </c>
       <c r="N14" t="n">
-        <v>100</v>
+        <v>6.82</v>
       </c>
       <c r="O14" t="n">
         <v>75</v>
@@ -1220,7 +1220,7 @@
         <v>40.37</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>6.21</v>
       </c>
       <c r="L15" t="n">
         <v>9.94</v>
@@ -1229,7 +1229,7 @@
         <v>42.24</v>
       </c>
       <c r="N15" t="n">
-        <v>100</v>
+        <v>8.07</v>
       </c>
       <c r="O15" t="n">
         <v>72.05</v>
@@ -1272,7 +1272,7 @@
         <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>10.81</v>
       </c>
       <c r="L16" t="n">
         <v>8.109999999999999</v>
@@ -1281,7 +1281,7 @@
         <v>44.59</v>
       </c>
       <c r="N16" t="n">
-        <v>100</v>
+        <v>10.81</v>
       </c>
       <c r="O16" t="n">
         <v>79.73</v>
@@ -1324,7 +1324,7 @@
         <v>50</v>
       </c>
       <c r="K17" t="n">
-        <v>100</v>
+        <v>10.53</v>
       </c>
       <c r="L17" t="n">
         <v>11.05</v>
@@ -1333,7 +1333,7 @@
         <v>50.53</v>
       </c>
       <c r="N17" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>71.58</v>
@@ -1376,7 +1376,7 @@
         <v>21.49</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>3.31</v>
       </c>
       <c r="L18" t="n">
         <v>2.48</v>
@@ -1385,7 +1385,7 @@
         <v>24.79</v>
       </c>
       <c r="N18" t="n">
-        <v>100</v>
+        <v>3.31</v>
       </c>
       <c r="O18" t="n">
         <v>63.64</v>
@@ -1416,7 +1416,7 @@
         <v>43.04</v>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>99.16</v>
       </c>
       <c r="H19" t="n">
         <v>91.98</v>
@@ -1428,7 +1428,7 @@
         <v>43.04</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>6.75</v>
       </c>
       <c r="L19" t="n">
         <v>4.22</v>
@@ -1437,7 +1437,7 @@
         <v>45.57</v>
       </c>
       <c r="N19" t="n">
-        <v>100</v>
+        <v>5.91</v>
       </c>
       <c r="O19" t="n">
         <v>62.03</v>
@@ -1468,7 +1468,7 @@
         <v>44.42</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>86.48999999999999</v>
@@ -1480,7 +1480,7 @@
         <v>50.65</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>6.23</v>
       </c>
       <c r="L20" t="n">
         <v>8.050000000000001</v>
@@ -1489,7 +1489,7 @@
         <v>68.31</v>
       </c>
       <c r="N20" t="n">
-        <v>100</v>
+        <v>4.68</v>
       </c>
       <c r="O20" t="n">
         <v>72.20999999999999</v>
@@ -1532,7 +1532,7 @@
         <v>34.38</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>14.06</v>
       </c>
       <c r="L21" t="n">
         <v>12.5</v>
@@ -1541,7 +1541,7 @@
         <v>40.62</v>
       </c>
       <c r="N21" t="n">
-        <v>100</v>
+        <v>10.94</v>
       </c>
       <c r="O21" t="n">
         <v>71.88</v>
@@ -1572,7 +1572,7 @@
         <v>44.68</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>90.06999999999999</v>
@@ -1584,7 +1584,7 @@
         <v>34.04</v>
       </c>
       <c r="K22" t="n">
-        <v>100</v>
+        <v>2.84</v>
       </c>
       <c r="L22" t="n">
         <v>4.96</v>
@@ -1593,7 +1593,7 @@
         <v>37.59</v>
       </c>
       <c r="N22" t="n">
-        <v>100</v>
+        <v>2.13</v>
       </c>
       <c r="O22" t="n">
         <v>73.05</v>
@@ -1636,7 +1636,7 @@
         <v>40</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
         <v>7.5</v>
@@ -1645,7 +1645,7 @@
         <v>52.5</v>
       </c>
       <c r="N23" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>77.5</v>
@@ -1676,7 +1676,7 @@
         <v>43.18</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>97.73</v>
       </c>
       <c r="H24" t="n">
         <v>95.45</v>
@@ -1688,7 +1688,7 @@
         <v>36.36</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>9.09</v>
       </c>
       <c r="L24" t="n">
         <v>6.82</v>
@@ -1697,7 +1697,7 @@
         <v>63.64</v>
       </c>
       <c r="N24" t="n">
-        <v>100</v>
+        <v>6.82</v>
       </c>
       <c r="O24" t="n">
         <v>68.18000000000001</v>
@@ -1728,7 +1728,7 @@
         <v>42.05</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>80.11</v>
@@ -1740,7 +1740,7 @@
         <v>32.39</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>6.25</v>
       </c>
       <c r="L25" t="n">
         <v>5.68</v>
@@ -1749,7 +1749,7 @@
         <v>32.95</v>
       </c>
       <c r="N25" t="n">
-        <v>100</v>
+        <v>5.68</v>
       </c>
       <c r="O25" t="n">
         <v>68.75</v>
@@ -1792,7 +1792,7 @@
         <v>36.72</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>13.28</v>
       </c>
       <c r="L26" t="n">
         <v>11.72</v>
@@ -1801,7 +1801,7 @@
         <v>41.41</v>
       </c>
       <c r="N26" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="O26" t="n">
         <v>71.09</v>
@@ -1832,7 +1832,7 @@
         <v>31.05</v>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>99.64</v>
       </c>
       <c r="H27" t="n">
         <v>88.81</v>
@@ -1844,7 +1844,7 @@
         <v>27.8</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>4.69</v>
       </c>
       <c r="L27" t="n">
         <v>3.61</v>
@@ -1853,7 +1853,7 @@
         <v>39.71</v>
       </c>
       <c r="N27" t="n">
-        <v>100</v>
+        <v>3.97</v>
       </c>
       <c r="O27" t="n">
         <v>66.06</v>
@@ -1896,7 +1896,7 @@
         <v>32.5</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>17.5</v>
       </c>
       <c r="L28" t="n">
         <v>20</v>
@@ -1905,7 +1905,7 @@
         <v>42.5</v>
       </c>
       <c r="N28" t="n">
-        <v>100</v>
+        <v>17.5</v>
       </c>
       <c r="O28" t="n">
         <v>62.5</v>

--- a/criterios_por_estado.xlsx
+++ b/criterios_por_estado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1914,6 +1914,58 @@
         <v>100</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>36.22</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="E29" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="F29" t="n">
+        <v>44.45</v>
+      </c>
+      <c r="G29" t="n">
+        <v>99.45</v>
+      </c>
+      <c r="H29" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="I29" t="n">
+        <v>74.67</v>
+      </c>
+      <c r="J29" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="K29" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>51.31</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="O29" t="n">
+        <v>70.86</v>
+      </c>
+      <c r="P29" t="n">
+        <v>99.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
